--- a/Jogos_da_Semana_FlashScore_2025-01-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-24.xlsx
@@ -692,61 +692,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X2" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.05</v>
-      </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z2" t="n">
         <v>9.5</v>
@@ -761,25 +761,25 @@
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
         <v>201</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>19</v>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="K3" t="n">
         <v>2.6</v>
@@ -869,34 +869,34 @@
         <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>8</v>
-      </c>
       <c r="AA3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -914,16 +914,16 @@
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>19</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -981,13 +981,13 @@
         <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1035,7 +1035,7 @@
         <v>6.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>9.5</v>
@@ -1050,13 +1050,13 @@
         <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
@@ -1122,16 +1122,16 @@
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
         <v>2.5</v>
@@ -1167,7 +1167,7 @@
         <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
         <v>2.1</v>
@@ -1209,7 +1209,7 @@
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL5" t="n">
         <v>8.5</v>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1278,10 +1278,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1302,10 +1302,10 @@
         <v>1.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W6" t="n">
         <v>1.91</v>
@@ -1317,7 +1317,7 @@
         <v>7.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1332,7 +1332,7 @@
         <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>6</v>
@@ -1350,7 +1350,7 @@
         <v>8.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J7" t="n">
         <v>6.5</v>
@@ -1416,13 +1416,13 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1431,16 +1431,16 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U7" t="n">
         <v>1.44</v>
@@ -1455,13 +1455,13 @@
         <v>1.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
         <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>67</v>
@@ -1497,7 +1497,7 @@
         <v>8.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1506,10 +1506,10 @@
         <v>34</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AR7" t="n">
         <v>1.88</v>
@@ -1583,7 +1583,7 @@
         <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1699,28 +1699,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
         <v>1.53</v>
@@ -1732,7 +1732,7 @@
         <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
         <v>5.5</v>
@@ -1756,28 +1756,28 @@
         <v>6</v>
       </c>
       <c r="Z9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA9" t="n">
         <v>10</v>
       </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
         <v>41</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>81</v>
@@ -1786,22 +1786,22 @@
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
         <v>13</v>
       </c>
-      <c r="AL9" t="n">
-        <v>12</v>
-      </c>
       <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
         <v>34</v>
       </c>
-      <c r="AN9" t="n">
-        <v>29</v>
-      </c>
       <c r="AO9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP9" t="n">
         <v>4.51</v>
@@ -1810,10 +1810,10 @@
         <v>1.19</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
         <v>2.9</v>
@@ -1857,13 +1857,13 @@
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
@@ -1878,10 +1878,10 @@
         <v>2.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
         <v>6</v>
@@ -1902,7 +1902,7 @@
         <v>1.62</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1911,10 +1911,10 @@
         <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
@@ -1959,10 +1959,10 @@
         <v>1.18</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="11">
@@ -2279,46 +2279,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
         <v>3.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="n">
         <v>1.33</v>
@@ -2327,46 +2327,46 @@
         <v>3.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -2375,13 +2375,13 @@
         <v>10</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
         <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2438,13 +2438,13 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>3.5</v>
@@ -2459,7 +2459,7 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U14" t="n">
         <v>1.4</v>
@@ -2468,7 +2468,7 @@
         <v>2.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
         <v>2.6</v>
@@ -2579,28 +2579,28 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
         <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
         <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R15" t="n">
         <v>2.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
         <v>1.25</v>
@@ -2609,7 +2609,7 @@
         <v>3.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X15" t="n">
         <v>2</v>
@@ -2666,10 +2666,10 @@
         <v>41</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2709,67 +2709,67 @@
         <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
       </c>
       <c r="K16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.8</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.63</v>
-      </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="X16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
         <v>34</v>
@@ -2778,43 +2778,43 @@
         <v>51</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF16" t="n">
         <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI16" t="n">
         <v>101</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AO16" t="n">
         <v>51</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AR16" t="n">
         <v>2.1</v>
@@ -2855,31 +2855,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>1.8</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>2.1</v>
@@ -2891,10 +2891,10 @@
         <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="U17" t="n">
         <v>1.67</v>
@@ -2903,37 +2903,37 @@
         <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y17" t="n">
         <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="n">
         <v>51</v>
       </c>
       <c r="AE17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>101</v>
@@ -2945,25 +2945,25 @@
         <v>5.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP17" t="n">
         <v>5.2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR17" t="n">
         <v>2.05</v>
@@ -3004,46 +3004,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
         <v>1.4</v>
@@ -3052,55 +3052,55 @@
         <v>2.75</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z18" t="n">
         <v>6.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
         <v>8.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI18" t="n">
         <v>1250</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="n">
         <v>51</v>
@@ -3145,22 +3145,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3169,85 +3169,85 @@
         <v>8.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X19" t="n">
         <v>2.05</v>
       </c>
-      <c r="S19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2.15</v>
-      </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA19" t="n">
         <v>8.75</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>8.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
         <v>4.8</v>
@@ -3295,100 +3295,100 @@
         <v>1.3</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="K20" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L20" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="V20" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="W20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA20" t="n">
         <v>35</v>
       </c>
       <c r="AB20" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>150</v>
       </c>
       <c r="AD20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF20" t="n">
         <v>10.25</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AK20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
       </c>
       <c r="AM20" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3427,40 +3427,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
         <v>3.75</v>
@@ -3475,10 +3475,10 @@
         <v>2.63</v>
       </c>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y21" t="n">
         <v>6.5</v>
@@ -3490,7 +3490,7 @@
         <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>15</v>
@@ -3505,22 +3505,22 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ21" t="n">
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM21" t="n">
         <v>51</v>
@@ -3571,10 +3571,10 @@
         <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>2.6</v>
@@ -3583,31 +3583,31 @@
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -3616,13 +3616,13 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z22" t="n">
         <v>8.5</v>
@@ -3640,13 +3640,13 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
         <v>6.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>51</v>
@@ -3661,7 +3661,7 @@
         <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -3709,28 +3709,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1.29</v>
@@ -3772,13 +3772,13 @@
         <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
         <v>23</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="n">
         <v>10</v>
@@ -3799,13 +3799,13 @@
         <v>8.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>9.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
         <v>19</v>
@@ -3850,28 +3850,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3880,10 +3880,10 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
         <v>4.5</v>
@@ -3904,16 +3904,16 @@
         <v>1.73</v>
       </c>
       <c r="Y24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
         <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>26</v>
@@ -3946,10 +3946,10 @@
         <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
@@ -3957,10 +3957,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="25">
@@ -4013,10 +4013,10 @@
         <v>2.6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
@@ -4025,10 +4025,10 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S25" t="n">
         <v>3.4</v>
@@ -4043,10 +4043,10 @@
         <v>2.75</v>
       </c>
       <c r="W25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X25" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -4136,28 +4136,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.25</v>
       </c>
-      <c r="K26" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -4166,16 +4166,16 @@
         <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="R26" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U26" t="n">
         <v>1.4</v>
@@ -4184,22 +4184,22 @@
         <v>2.75</v>
       </c>
       <c r="W26" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Y26" t="n">
         <v>6.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
@@ -4211,13 +4211,13 @@
         <v>9.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI26" t="n">
         <v>351</v>
@@ -4226,16 +4226,16 @@
         <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN26" t="n">
         <v>51</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>41</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4277,19 +4277,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
         <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
@@ -4301,37 +4301,37 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.29</v>
       </c>
-      <c r="P27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X27" t="n">
         <v>1.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
         <v>8</v>
@@ -4349,7 +4349,7 @@
         <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF27" t="n">
         <v>7</v>
@@ -4361,10 +4361,10 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
@@ -4418,22 +4418,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
         <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -4460,10 +4460,10 @@
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W28" t="n">
         <v>1.53</v>
@@ -4481,13 +4481,13 @@
         <v>9.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -4505,7 +4505,7 @@
         <v>126</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>17</v>
@@ -4563,82 +4563,82 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L29" t="n">
         <v>5.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R29" t="n">
         <v>2.5</v>
       </c>
-      <c r="L29" t="n">
-        <v>5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>17</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.35</v>
-      </c>
       <c r="S29" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
         <v>9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
         <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
         <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -4650,10 +4650,10 @@
         <v>151</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
         <v>17</v>
@@ -4665,13 +4665,13 @@
         <v>41</v>
       </c>
       <c r="AO29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4708,37 +4708,37 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R30" t="n">
         <v>2</v>
@@ -4747,7 +4747,7 @@
         <v>2.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U30" t="n">
         <v>1.36</v>
@@ -4783,7 +4783,7 @@
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -4849,13 +4849,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>2.9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
@@ -4864,31 +4864,31 @@
         <v>1.83</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P31" t="n">
         <v>2.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R31" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
         <v>6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U31" t="n">
         <v>1.62</v>
@@ -4897,13 +4897,13 @@
         <v>2.2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z31" t="n">
         <v>13</v>
@@ -4921,7 +4921,7 @@
         <v>51</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
@@ -4939,7 +4939,7 @@
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
@@ -4954,10 +4954,10 @@
         <v>41</v>
       </c>
       <c r="AP31" t="n">
-        <v>4.69</v>
+        <v>4.81</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR31" t="n">
         <v>2.1</v>
@@ -4998,22 +4998,22 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L32" t="n">
         <v>3</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -5028,10 +5028,10 @@
         <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
         <v>2.5</v>
@@ -5040,7 +5040,7 @@
         <v>1.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V32" t="n">
         <v>3.4</v>
@@ -5052,28 +5052,28 @@
         <v>2.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC32" t="n">
         <v>19</v>
       </c>
-      <c r="AA32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>21</v>
-      </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
         <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
         <v>11</v>
@@ -5085,28 +5085,28 @@
         <v>101</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM32" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5280,78 +5280,78 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="K34" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L34" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="T34" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="U34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V34" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X34" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB34" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AG34" t="n">
         <v>13.5</v>
@@ -5360,25 +5360,25 @@
         <v>60</v>
       </c>
       <c r="AI34" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL34" t="n">
         <v>10.75</v>
       </c>
       <c r="AM34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5417,13 +5417,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.1</v>
@@ -5438,7 +5438,7 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.3</v>
@@ -5447,16 +5447,16 @@
         <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U35" t="n">
         <v>1.44</v>
@@ -5474,7 +5474,7 @@
         <v>8</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="n">
         <v>9.5</v>
@@ -5513,7 +5513,7 @@
         <v>11</v>
       </c>
       <c r="AM35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN35" t="n">
         <v>23</v>
@@ -5558,32 +5558,32 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L36" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R36" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -5596,55 +5596,55 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Z36" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB36" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="n">
         <v>10.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AG36" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI36" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AL36" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AM36" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5683,28 +5683,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -5713,28 +5713,28 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -5746,16 +5746,16 @@
         <v>9.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="n">
         <v>26</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF37" t="n">
         <v>6.5</v>
@@ -5767,22 +5767,22 @@
         <v>41</v>
       </c>
       <c r="AI37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK37" t="n">
         <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM37" t="n">
         <v>29</v>
       </c>
       <c r="AN37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
         <v>29</v>
@@ -5824,28 +5824,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K38" t="n">
         <v>2.3</v>
       </c>
       <c r="L38" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
         <v>1.18</v>
@@ -5854,10 +5854,10 @@
         <v>4.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="n">
         <v>2.5</v>
@@ -5866,10 +5866,10 @@
         <v>1.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V38" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W38" t="n">
         <v>1.53</v>
@@ -5878,22 +5878,22 @@
         <v>2.38</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB38" t="n">
         <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE38" t="n">
         <v>13</v>
@@ -5908,13 +5908,13 @@
         <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ38" t="n">
         <v>13</v>
       </c>
       <c r="AK38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL38" t="n">
         <v>12</v>
@@ -5926,7 +5926,7 @@
         <v>23</v>
       </c>
       <c r="AO38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP38" t="n">
         <v>2.05</v>
@@ -5993,22 +5993,22 @@
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U39" t="n">
         <v>1.33</v>
@@ -6113,61 +6113,61 @@
         <v>3.2</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J40" t="n">
         <v>3.75</v>
       </c>
       <c r="K40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="T40" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="n">
         <v>11</v>
@@ -6182,10 +6182,10 @@
         <v>29</v>
       </c>
       <c r="AE40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG40" t="n">
         <v>13</v>
@@ -6197,7 +6197,7 @@
         <v>151</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK40" t="n">
         <v>11</v>
@@ -6209,7 +6209,7 @@
         <v>19</v>
       </c>
       <c r="AN40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO40" t="n">
         <v>23</v>
@@ -6254,16 +6254,16 @@
         <v>1.33</v>
       </c>
       <c r="H41" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J41" t="n">
         <v>1.73</v>
       </c>
       <c r="K41" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
         <v>6</v>
@@ -6272,46 +6272,46 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="R41" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T41" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="U41" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="V41" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA41" t="n">
         <v>10</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>9</v>
       </c>
       <c r="AB41" t="n">
         <v>11</v>
@@ -6323,28 +6323,28 @@
         <v>17</v>
       </c>
       <c r="AE41" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI41" t="n">
         <v>101</v>
       </c>
       <c r="AJ41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK41" t="n">
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM41" t="n">
         <v>81</v>
@@ -6353,7 +6353,7 @@
         <v>41</v>
       </c>
       <c r="AO41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6392,22 +6392,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H42" t="n">
         <v>4.75</v>
       </c>
       <c r="I42" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J42" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="K42" t="n">
         <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -6416,28 +6416,28 @@
         <v>17</v>
       </c>
       <c r="O42" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R42" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W42" t="n">
         <v>1.8</v>
@@ -6446,7 +6446,7 @@
         <v>1.91</v>
       </c>
       <c r="Y42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z42" t="n">
         <v>7.5</v>
@@ -6461,16 +6461,16 @@
         <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG42" t="n">
         <v>17</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>19</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
@@ -6497,10 +6497,10 @@
         <v>41</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6537,22 +6537,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
       </c>
       <c r="L43" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
@@ -6594,46 +6594,46 @@
         <v>15</v>
       </c>
       <c r="Z43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA43" t="n">
         <v>11</v>
       </c>
       <c r="AB43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD43" t="n">
         <v>21</v>
       </c>
       <c r="AE43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG43" t="n">
         <v>10</v>
       </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
         <v>81</v>
       </c>
       <c r="AJ43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL43" t="n">
         <v>10</v>
       </c>
       <c r="AM43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN43" t="n">
         <v>17</v>
@@ -6690,7 +6690,7 @@
         <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L44" t="n">
         <v>4</v>
@@ -6785,10 +6785,10 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="45">
@@ -6823,22 +6823,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
         <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
@@ -6865,10 +6865,10 @@
         <v>1.18</v>
       </c>
       <c r="U45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W45" t="n">
         <v>2.2</v>
@@ -6880,13 +6880,13 @@
         <v>5.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA45" t="n">
         <v>9</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
         <v>17</v>
@@ -6895,7 +6895,7 @@
         <v>34</v>
       </c>
       <c r="AE45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF45" t="n">
         <v>7</v>
@@ -6908,13 +6908,13 @@
       </c>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM45" t="n">
         <v>51</v>
@@ -6928,7 +6928,7 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AS45" t="n">
         <v>2</v>
@@ -6978,7 +6978,7 @@
         <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L46" t="n">
         <v>4</v>
@@ -6990,22 +6990,22 @@
         <v>7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P46" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T46" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U46" t="n">
         <v>1.53</v>
@@ -7073,10 +7073,10 @@
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="47">
@@ -7111,16 +7111,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
@@ -7132,7 +7132,7 @@
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -7168,7 +7168,7 @@
         <v>6.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA47" t="n">
         <v>9.5</v>
@@ -7192,7 +7192,7 @@
         <v>17</v>
       </c>
       <c r="AH47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -7252,52 +7252,52 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="I48" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="K48" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="L48" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P48" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R48" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="S48" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="T48" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="U48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V48" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="W48" t="n">
         <v>1.5</v>
@@ -7306,31 +7306,31 @@
         <v>2.4</v>
       </c>
       <c r="Y48" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z48" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z48" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA48" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF48" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB48" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH48" t="n">
         <v>40</v>
@@ -7339,22 +7339,22 @@
         <v>200</v>
       </c>
       <c r="AJ48" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK48" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL48" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AN48" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AO48" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -7393,109 +7393,109 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="H49" t="n">
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J49" t="n">
-        <v>2.65</v>
+        <v>2.87</v>
       </c>
       <c r="K49" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L49" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P49" t="n">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="R49" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="S49" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T49" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U49" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="V49" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="W49" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="X49" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y49" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z49" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AB49" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AC49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD49" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN49" t="n">
         <v>18</v>
       </c>
-      <c r="AE49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>175</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>22</v>
-      </c>
       <c r="AO49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
@@ -7552,10 +7552,10 @@
         <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
@@ -7677,22 +7677,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H51" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I51" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="J51" t="n">
-        <v>4.35</v>
+        <v>4.8</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L51" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -7704,7 +7704,7 @@
         <v>1.21</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="Q51" t="n">
         <v>1.62</v>
@@ -7719,64 +7719,64 @@
         <v>1.47</v>
       </c>
       <c r="U51" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W51" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X51" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Y51" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA51" t="n">
         <v>15</v>
       </c>
-      <c r="Z51" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AB51" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AD51" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="n">
         <v>8.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG51" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI51" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ51" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK51" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>9.25</v>
       </c>
       <c r="AL51" t="n">
         <v>8</v>
       </c>
       <c r="AM51" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO51" t="n">
         <v>21</v>
@@ -7818,22 +7818,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="J52" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L52" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
@@ -7842,22 +7842,22 @@
         <v>8.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P52" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q52" t="n">
         <v>1.6</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S52" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T52" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U52" t="n">
         <v>1.31</v>
@@ -7866,25 +7866,25 @@
         <v>3.15</v>
       </c>
       <c r="W52" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X52" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z52" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC52" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD52" t="n">
         <v>21</v>
@@ -7896,31 +7896,31 @@
         <v>7</v>
       </c>
       <c r="AG52" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI52" t="n">
         <v>200</v>
       </c>
       <c r="AJ52" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AK52" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN52" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO52" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
@@ -7959,97 +7959,97 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I53" t="n">
         <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="K53" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L53" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q53" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W53" t="n">
         <v>1.7</v>
       </c>
-      <c r="R53" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.65</v>
-      </c>
       <c r="X53" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Z53" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA53" t="n">
         <v>8.25</v>
       </c>
       <c r="AB53" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE53" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AF53" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH53" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI53" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ53" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL53" t="n">
         <v>13</v>
@@ -8058,10 +8058,10 @@
         <v>60</v>
       </c>
       <c r="AN53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO53" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
@@ -8103,106 +8103,106 @@
         <v>1.7</v>
       </c>
       <c r="H54" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I54" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="J54" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="K54" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L54" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="O54" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R54" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="T54" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="U54" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="V54" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="W54" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="X54" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y54" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z54" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AA54" t="n">
         <v>8</v>
       </c>
       <c r="AB54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AK54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL54" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN54" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AO54" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
@@ -8241,22 +8241,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L55" t="n">
         <v>4.25</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.35</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -8265,85 +8265,85 @@
         <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P55" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="Q55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="T55" t="n">
         <v>1.57</v>
       </c>
-      <c r="R55" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.5</v>
-      </c>
       <c r="U55" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W55" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="X55" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="Y55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z55" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA55" t="n">
         <v>8.25</v>
       </c>
       <c r="AB55" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC55" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE55" t="n">
         <v>9</v>
       </c>
       <c r="AF55" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AG55" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ55" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK55" t="n">
         <v>27</v>
       </c>
       <c r="AL55" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM55" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN55" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO55" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
@@ -8382,91 +8382,91 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K56" t="n">
         <v>2.3</v>
       </c>
       <c r="L56" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R56" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W56" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X56" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA56" t="n">
         <v>8.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC56" t="n">
         <v>13</v>
       </c>
       <c r="AD56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF56" t="n">
         <v>7.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH56" t="n">
         <v>51</v>
       </c>
       <c r="AI56" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ56" t="n">
         <v>15</v>
@@ -8475,13 +8475,13 @@
         <v>26</v>
       </c>
       <c r="AL56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM56" t="n">
         <v>51</v>
       </c>
       <c r="AN56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO56" t="n">
         <v>41</v>
@@ -8523,28 +8523,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="H57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J57" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L57" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O57" t="n">
         <v>1.25</v>
@@ -8553,10 +8553,10 @@
         <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R57" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
         <v>3</v>
@@ -8565,40 +8565,40 @@
         <v>1.36</v>
       </c>
       <c r="U57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V57" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y57" t="n">
         <v>7.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA57" t="n">
         <v>8.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG57" t="n">
         <v>15</v>
@@ -8610,19 +8610,19 @@
         <v>201</v>
       </c>
       <c r="AJ57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM57" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN57" t="n">
         <v>41</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>34</v>
       </c>
       <c r="AO57" t="n">
         <v>41</v>
@@ -8664,22 +8664,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
         <v>2.75</v>
       </c>
       <c r="I58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J58" t="n">
         <v>3</v>
       </c>
-      <c r="J58" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K58" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L58" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -8714,25 +8714,25 @@
         <v>1.78</v>
       </c>
       <c r="Y58" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="Z58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA58" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB58" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC58" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD58" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF58" t="n">
         <v>5.4</v>
@@ -8747,22 +8747,22 @@
         <v>800</v>
       </c>
       <c r="AJ58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK58" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -8800,41 +8800,107 @@
           <t>La Guaira</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.5</v>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>37</v>
+      </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
       <c r="AR59" t="inlineStr"/>
@@ -9013,85 +9079,85 @@
         </is>
       </c>
       <c r="G61" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N61" t="n">
+        <v>9</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P61" t="n">
         <v>4.15</v>
       </c>
-      <c r="H61" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N61" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P61" t="n">
-        <v>4.05</v>
-      </c>
       <c r="Q61" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R61" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="S61" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T61" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U61" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V61" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W61" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X61" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Y61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z61" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA61" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AC61" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD61" t="n">
         <v>37</v>
       </c>
       <c r="AE61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AG61" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH61" t="n">
         <v>50</v>
@@ -9100,19 +9166,19 @@
         <v>300</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK61" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL61" t="n">
         <v>8</v>
       </c>
       <c r="AM61" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AN61" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO61" t="n">
         <v>20</v>
@@ -9154,22 +9220,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="H62" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I62" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J62" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="K62" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="L62" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -9177,58 +9243,58 @@
         <v>1.11</v>
       </c>
       <c r="P62" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R62" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="S62" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T62" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="U62" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="V62" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="W62" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X62" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Y62" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z62" t="n">
         <v>75</v>
       </c>
       <c r="AA62" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB62" t="n">
         <v>250</v>
       </c>
       <c r="AC62" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD62" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE62" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH62" t="n">
         <v>65</v>
@@ -9237,13 +9303,13 @@
         <v>400</v>
       </c>
       <c r="AJ62" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK62" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AL62" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM62" t="n">
         <v>8.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-24.xlsx
@@ -698,40 +698,40 @@
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -740,31 +740,31 @@
         <v>2.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y2" t="n">
         <v>7.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -776,7 +776,7 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -794,7 +794,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -836,61 +836,61 @@
         <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X3" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
         <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>8.5</v>
@@ -902,22 +902,22 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
         <v>21</v>
       </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -935,13 +935,13 @@
         <v>41</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1008,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>4.33</v>
@@ -1032,7 +1032,7 @@
         <v>1.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
         <v>10</v>
@@ -1044,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
         <v>34</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1167,16 +1167,16 @@
         <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1185,7 +1185,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="n">
         <v>34</v>
@@ -1215,10 +1215,10 @@
         <v>8.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1278,10 +1278,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1290,10 +1290,10 @@
         <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1302,25 +1302,25 @@
         <v>1.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y6" t="n">
         <v>7.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1329,10 +1329,10 @@
         <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
         <v>6</v>
@@ -1344,19 +1344,19 @@
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>26</v>
@@ -1434,7 +1434,7 @@
         <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>3.75</v>
@@ -1583,7 +1583,7 @@
         <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1661,10 +1661,10 @@
         <v>1.24</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="9">
@@ -1732,7 +1732,7 @@
         <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>5.5</v>
@@ -1863,7 +1863,7 @@
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
@@ -1872,22 +1872,22 @@
         <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U10" t="n">
         <v>1.62</v>
@@ -1902,7 +1902,7 @@
         <v>1.62</v>
       </c>
       <c r="Y10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -1923,7 +1923,7 @@
         <v>6</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
         <v>19</v>
@@ -1935,7 +1935,7 @@
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1953,10 +1953,10 @@
         <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.69</v>
+        <v>4.51</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AR10" t="n">
         <v>2.1</v>
@@ -2279,46 +2279,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U13" t="n">
         <v>1.33</v>
@@ -2327,22 +2327,22 @@
         <v>3.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>17</v>
@@ -2351,37 +2351,37 @@
         <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ13" t="n">
         <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2420,22 +2420,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2477,13 +2477,13 @@
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>19</v>
@@ -2498,7 +2498,7 @@
         <v>6.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>41</v>
@@ -2507,7 +2507,7 @@
         <v>201</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK14" t="n">
         <v>15</v>
@@ -2519,7 +2519,7 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>29</v>
@@ -2561,28 +2561,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K15" t="n">
         <v>2.6</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -2591,7 +2591,7 @@
         <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
         <v>2.5</v>
@@ -2609,13 +2609,13 @@
         <v>3.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
         <v>8</v>
@@ -2636,16 +2636,16 @@
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
@@ -2654,7 +2654,7 @@
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
         <v>67</v>
@@ -2861,7 +2861,7 @@
         <v>2.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2873,10 +2873,10 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.67</v>
@@ -2885,16 +2885,16 @@
         <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U17" t="n">
         <v>1.67</v>
@@ -2942,7 +2942,7 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK17" t="n">
         <v>11</v>
@@ -3022,22 +3022,22 @@
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3286,19 +3286,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="I20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J20" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="K20" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.75</v>
@@ -3307,25 +3307,25 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U20" t="n">
         <v>1.33</v>
@@ -3334,43 +3334,43 @@
         <v>3.15</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AC20" t="n">
         <v>150</v>
       </c>
       <c r="AD20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>10.25</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI20" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
         <v>6.4</v>
@@ -3388,7 +3388,7 @@
         <v>11.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3586,28 +3586,28 @@
         <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J23" t="n">
         <v>3.6</v>
@@ -3724,31 +3724,31 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U23" t="n">
         <v>1.4</v>
@@ -3763,7 +3763,7 @@
         <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
         <v>15</v>
@@ -3772,7 +3772,7 @@
         <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
         <v>23</v>
@@ -3781,22 +3781,22 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="n">
         <v>201</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
         <v>11</v>
@@ -3805,13 +3805,13 @@
         <v>9.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
         <v>19</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3853,43 +3853,43 @@
         <v>2.7</v>
       </c>
       <c r="H24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U24" t="n">
         <v>1.53</v>
@@ -3922,7 +3922,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -3931,7 +3931,7 @@
         <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="n">
         <v>301</v>
@@ -3957,10 +3957,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="25">
@@ -3995,22 +3995,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4025,16 +4025,16 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U25" t="n">
         <v>1.4</v>
@@ -4049,25 +4049,25 @@
         <v>1.91</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB25" t="n">
         <v>41</v>
       </c>
       <c r="AC25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD25" t="n">
         <v>34</v>
       </c>
-      <c r="AD25" t="n">
-        <v>41</v>
-      </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF25" t="n">
         <v>6.5</v>
@@ -4082,22 +4082,22 @@
         <v>251</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL25" t="n">
         <v>9</v>
       </c>
-      <c r="AL25" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
         <v>7</v>
@@ -4148,34 +4148,34 @@
         <v>2.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
         <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.33</v>
       </c>
       <c r="U26" t="n">
         <v>1.4</v>
@@ -4190,16 +4190,16 @@
         <v>1.73</v>
       </c>
       <c r="Y26" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>7</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
@@ -4208,7 +4208,7 @@
         <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>7.5</v>
@@ -4277,16 +4277,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
         <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
@@ -4301,22 +4301,22 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
         <v>1.44</v>
@@ -4340,7 +4340,7 @@
         <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
         <v>15</v>
@@ -4349,10 +4349,10 @@
         <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG27" t="n">
         <v>17</v>
@@ -4424,10 +4424,10 @@
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
         <v>2.3</v>
@@ -4496,13 +4496,13 @@
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>34</v>
       </c>
       <c r="AI28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="n">
         <v>13</v>
@@ -4523,10 +4523,10 @@
         <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4563,16 +4563,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I29" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="n">
         <v>2.6</v>
@@ -4581,19 +4581,19 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
         <v>19</v>
       </c>
       <c r="O29" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P29" t="n">
         <v>5.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R29" t="n">
         <v>2.5</v>
@@ -4602,7 +4602,7 @@
         <v>2.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U29" t="n">
         <v>1.25</v>
@@ -4611,19 +4611,19 @@
         <v>3.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
@@ -4635,7 +4635,7 @@
         <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
         <v>9</v>
@@ -4656,22 +4656,22 @@
         <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN29" t="n">
         <v>41</v>
       </c>
       <c r="AO29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4708,37 +4708,37 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
         <v>12</v>
       </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
         <v>2</v>
@@ -4747,7 +4747,7 @@
         <v>2.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U30" t="n">
         <v>1.36</v>
@@ -4762,13 +4762,13 @@
         <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
         <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
         <v>23</v>
@@ -4804,7 +4804,7 @@
         <v>10</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
         <v>21</v>
@@ -4849,64 +4849,64 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N31" t="n">
         <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="P31" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6</v>
       </c>
-      <c r="T31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>7</v>
-      </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>13</v>
@@ -4921,16 +4921,16 @@
         <v>51</v>
       </c>
       <c r="AE31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF31" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6</v>
       </c>
       <c r="AG31" t="n">
         <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI31" t="n">
         <v>501</v>
@@ -4939,25 +4939,25 @@
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP31" t="n">
-        <v>4.81</v>
+        <v>5.45</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR31" t="n">
         <v>2.1</v>
@@ -5417,13 +5417,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
         <v>3.1</v>
@@ -5432,7 +5432,7 @@
         <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
@@ -5447,22 +5447,22 @@
         <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W35" t="n">
         <v>1.75</v>
@@ -5471,19 +5471,19 @@
         <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
         <v>23</v>
       </c>
       <c r="AC35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD35" t="n">
         <v>29</v>
@@ -5513,7 +5513,7 @@
         <v>11</v>
       </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="n">
         <v>23</v>
@@ -5683,13 +5683,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J37" t="n">
         <v>3.1</v>
@@ -5740,7 +5740,7 @@
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA37" t="n">
         <v>9.5</v>
@@ -5767,10 +5767,10 @@
         <v>41</v>
       </c>
       <c r="AI37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK37" t="n">
         <v>15</v>
@@ -5824,28 +5824,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K38" t="n">
         <v>2.3</v>
       </c>
       <c r="L38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n">
         <v>1.18</v>
@@ -5854,10 +5854,10 @@
         <v>4.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S38" t="n">
         <v>2.5</v>
@@ -5866,16 +5866,16 @@
         <v>1.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X38" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y38" t="n">
         <v>11</v>
@@ -5890,13 +5890,13 @@
         <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
         <v>6.5</v>
@@ -5908,13 +5908,13 @@
         <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="n">
         <v>13</v>
       </c>
       <c r="AK38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="n">
         <v>12</v>
@@ -5969,22 +5969,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6017,34 +6017,34 @@
         <v>3.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA39" t="n">
         <v>9</v>
       </c>
-      <c r="AA39" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC39" t="n">
         <v>15</v>
       </c>
-      <c r="AC39" t="n">
-        <v>13</v>
-      </c>
       <c r="AD39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE39" t="n">
         <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
@@ -6056,22 +6056,22 @@
         <v>151</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK39" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6110,13 +6110,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>3.75</v>
@@ -6125,7 +6125,7 @@
         <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -6158,22 +6158,22 @@
         <v>3.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="n">
         <v>19</v>
       </c>
       <c r="AA40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="n">
         <v>23</v>
@@ -6212,7 +6212,7 @@
         <v>15</v>
       </c>
       <c r="AO40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>6</v>
@@ -6266,52 +6266,52 @@
         <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O41" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S41" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T41" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="V41" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
         <v>11</v>
@@ -6323,7 +6323,7 @@
         <v>17</v>
       </c>
       <c r="AE41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF41" t="n">
         <v>13</v>
@@ -6332,7 +6332,7 @@
         <v>17</v>
       </c>
       <c r="AH41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI41" t="n">
         <v>101</v>
@@ -6341,10 +6341,10 @@
         <v>34</v>
       </c>
       <c r="AK41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM41" t="n">
         <v>81</v>
@@ -6353,7 +6353,7 @@
         <v>41</v>
       </c>
       <c r="AO41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6392,28 +6392,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="H42" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I42" t="n">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="K42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O42" t="n">
         <v>1.17</v>
@@ -6422,40 +6422,40 @@
         <v>5</v>
       </c>
       <c r="Q42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.57</v>
       </c>
-      <c r="R42" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.53</v>
-      </c>
       <c r="U42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X42" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y42" t="n">
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
         <v>11</v>
@@ -6464,43 +6464,43 @@
         <v>23</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
       </c>
       <c r="AI42" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6537,22 +6537,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K43" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L43" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
@@ -6561,22 +6561,22 @@
         <v>19</v>
       </c>
       <c r="O43" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P43" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R43" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U43" t="n">
         <v>1.25</v>
@@ -6585,40 +6585,40 @@
         <v>3.75</v>
       </c>
       <c r="W43" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y43" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z43" t="n">
         <v>15</v>
       </c>
-      <c r="Z43" t="n">
-        <v>17</v>
-      </c>
       <c r="AA43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG43" t="n">
         <v>11</v>
       </c>
-      <c r="AB43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>10</v>
-      </c>
       <c r="AH43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI43" t="n">
         <v>81</v>
@@ -6627,22 +6627,26 @@
         <v>15</v>
       </c>
       <c r="AK43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN43" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.97</v>
+      </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
     </row>
@@ -6690,7 +6694,7 @@
         <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L44" t="n">
         <v>4</v>
@@ -6785,10 +6789,10 @@
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="45">
@@ -6928,7 +6932,7 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AS45" t="n">
         <v>2</v>
@@ -6966,22 +6970,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H46" t="n">
         <v>3.1</v>
       </c>
       <c r="I46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J46" t="n">
         <v>3.25</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K46" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M46" t="n">
         <v>1.1</v>
@@ -7023,16 +7027,16 @@
         <v>6.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA46" t="n">
         <v>10</v>
       </c>
       <c r="AB46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD46" t="n">
         <v>41</v>
@@ -7053,10 +7057,10 @@
         <v>501</v>
       </c>
       <c r="AJ46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL46" t="n">
         <v>12</v>
@@ -7073,10 +7077,10 @@
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -7111,16 +7115,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J47" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
@@ -7132,7 +7136,7 @@
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -7141,16 +7145,16 @@
         <v>2.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R47" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S47" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U47" t="n">
         <v>1.5</v>
@@ -7168,7 +7172,7 @@
         <v>6.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>9.5</v>
@@ -7198,7 +7202,7 @@
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK47" t="n">
         <v>17</v>
@@ -7534,58 +7538,58 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K50" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L50" t="n">
         <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V50" t="n">
         <v>2.5</v>
       </c>
-      <c r="R50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y50" t="n">
         <v>5.5</v>
@@ -7594,35 +7598,35 @@
         <v>7</v>
       </c>
       <c r="AA50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB50" t="n">
         <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE50" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF50" t="n">
         <v>6.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
         <v>19</v>
@@ -7639,10 +7643,10 @@
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="51">
@@ -7677,22 +7681,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="H51" t="n">
         <v>3.95</v>
       </c>
       <c r="I51" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J51" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K51" t="n">
         <v>2.32</v>
       </c>
       <c r="L51" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -7707,13 +7711,13 @@
         <v>3.95</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R51" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S51" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T51" t="n">
         <v>1.47</v>
@@ -7734,19 +7738,19 @@
         <v>15.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA51" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC51" t="n">
         <v>40</v>
       </c>
       <c r="AD51" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE51" t="n">
         <v>8.5</v>
@@ -7773,13 +7777,13 @@
         <v>8</v>
       </c>
       <c r="AM51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN51" t="n">
         <v>12</v>
       </c>
       <c r="AO51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
@@ -7818,22 +7822,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I52" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K52" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L52" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
@@ -7845,7 +7849,7 @@
         <v>1.19</v>
       </c>
       <c r="P52" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q52" t="n">
         <v>1.6</v>
@@ -7854,10 +7858,10 @@
         <v>2.22</v>
       </c>
       <c r="S52" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U52" t="n">
         <v>1.31</v>
@@ -7866,28 +7870,28 @@
         <v>3.15</v>
       </c>
       <c r="W52" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X52" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
       </c>
       <c r="Z52" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB52" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC52" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE52" t="n">
         <v>8.5</v>
@@ -7899,7 +7903,7 @@
         <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI52" t="n">
         <v>200</v>
@@ -7908,19 +7912,19 @@
         <v>11</v>
       </c>
       <c r="AK52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL52" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
@@ -8103,94 +8107,94 @@
         <v>1.7</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="J54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K54" t="n">
         <v>2.22</v>
       </c>
-      <c r="K54" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L54" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R54" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S54" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="T54" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U54" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V54" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W54" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X54" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Y54" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z54" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA54" t="n">
         <v>8</v>
       </c>
       <c r="AB54" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE54" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF54" t="n">
         <v>7.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ54" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL54" t="n">
         <v>14.5</v>
@@ -8199,10 +8203,10 @@
         <v>75</v>
       </c>
       <c r="AN54" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO54" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
@@ -8382,13 +8386,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J56" t="n">
         <v>2.25</v>
@@ -8397,7 +8401,7 @@
         <v>2.3</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -8463,7 +8467,7 @@
         <v>15</v>
       </c>
       <c r="AH56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI56" t="n">
         <v>201</v>
@@ -8472,7 +8476,7 @@
         <v>15</v>
       </c>
       <c r="AK56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL56" t="n">
         <v>15</v>
@@ -8484,7 +8488,7 @@
         <v>34</v>
       </c>
       <c r="AO56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8664,22 +8668,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="H58" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I58" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K58" t="n">
         <v>1.9</v>
       </c>
       <c r="L58" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -8690,13 +8694,13 @@
         <v>2.45</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S58" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T58" t="n">
         <v>1.19</v>
@@ -8708,31 +8712,31 @@
         <v>2.32</v>
       </c>
       <c r="W58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X58" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y58" t="n">
         <v>6.6</v>
       </c>
       <c r="Z58" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC58" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD58" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE58" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF58" t="n">
         <v>5.4</v>
@@ -8747,13 +8751,13 @@
         <v>800</v>
       </c>
       <c r="AJ58" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK58" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM58" t="n">
         <v>45</v>
@@ -8762,7 +8766,7 @@
         <v>32</v>
       </c>
       <c r="AO58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -9357,22 +9361,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="H63" t="n">
         <v>3.4</v>
       </c>
       <c r="I63" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="J63" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="K63" t="n">
         <v>2.15</v>
       </c>
       <c r="L63" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
@@ -9387,46 +9391,46 @@
         <v>3.05</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R63" t="n">
         <v>1.75</v>
       </c>
       <c r="S63" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T63" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U63" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V63" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="W63" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X63" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Y63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z63" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AC63" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AD63" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE63" t="n">
         <v>7</v>
@@ -9444,22 +9448,22 @@
         <v>700</v>
       </c>
       <c r="AJ63" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AK63" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AL63" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM63" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AN63" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO63" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-24.xlsx
@@ -692,46 +692,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -752,22 +752,22 @@
         <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -782,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -794,7 +794,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -854,7 +854,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -869,10 +869,10 @@
         <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
         <v>1.22</v>
@@ -881,13 +881,13 @@
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>9</v>
@@ -917,7 +917,7 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -926,7 +926,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -1008,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>4.33</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1284,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
@@ -1296,10 +1296,10 @@
         <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U6" t="n">
         <v>1.44</v>
@@ -1314,13 +1314,13 @@
         <v>1.95</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1332,13 +1332,13 @@
         <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>6</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1356,10 +1356,10 @@
         <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
@@ -1413,40 +1413,40 @@
         <v>6.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T7" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
         <v>2.2</v>
@@ -1455,16 +1455,16 @@
         <v>1.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
@@ -1476,10 +1476,10 @@
         <v>8.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>81</v>
@@ -1494,10 +1494,10 @@
         <v>6.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1506,10 +1506,10 @@
         <v>34</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.09</v>
+        <v>3.24</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AR7" t="n">
         <v>1.88</v>
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1592,28 +1592,28 @@
         <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" t="n">
         <v>4.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
@@ -1625,7 +1625,7 @@
         <v>6.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>26</v>
@@ -1637,34 +1637,34 @@
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>81</v>
       </c>
       <c r="AN8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO8" t="n">
         <v>67</v>
       </c>
-      <c r="AO8" t="n">
-        <v>81</v>
-      </c>
       <c r="AP8" t="n">
-        <v>3.89</v>
+        <v>4.02</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="9">
@@ -1708,10 +1708,10 @@
         <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -1723,22 +1723,22 @@
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -1753,7 +1753,7 @@
         <v>1.62</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
         <v>9.5</v>
@@ -1777,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>81</v>
@@ -1792,22 +1792,22 @@
         <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO9" t="n">
         <v>51</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.51</v>
+        <v>4.69</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR9" t="n">
         <v>2.1</v>
@@ -1866,10 +1866,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -2279,13 +2279,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
         <v>2.88</v>
@@ -2294,7 +2294,7 @@
         <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2339,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -2369,13 +2369,13 @@
         <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>11</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
         <v>21</v>
@@ -2706,22 +2706,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
         <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>1.73</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.18</v>
@@ -2754,10 +2754,10 @@
         <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y16" t="n">
         <v>5.5</v>
@@ -2769,7 +2769,7 @@
         <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
         <v>34</v>
@@ -2793,10 +2793,10 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>2.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2873,10 +2873,10 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>1.67</v>
@@ -2885,16 +2885,16 @@
         <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U17" t="n">
         <v>1.67</v>
@@ -2951,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>29</v>
@@ -2960,10 +2960,10 @@
         <v>51</v>
       </c>
       <c r="AP17" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR17" t="n">
         <v>2.05</v>
@@ -3427,34 +3427,34 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
         <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -3481,7 +3481,7 @@
         <v>1.73</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z21" t="n">
         <v>7.5</v>
@@ -3490,7 +3490,7 @@
         <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>15</v>
@@ -3499,7 +3499,7 @@
         <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
         <v>7</v>
@@ -3508,19 +3508,19 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI21" t="n">
         <v>401</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM21" t="n">
         <v>51</v>
@@ -5420,10 +5420,10 @@
         <v>2.5</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J35" t="n">
         <v>3.1</v>
@@ -5432,25 +5432,25 @@
         <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S35" t="n">
         <v>3.4</v>
@@ -5489,7 +5489,7 @@
         <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF35" t="n">
         <v>6</v>
@@ -5519,7 +5519,7 @@
         <v>23</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5683,13 +5683,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
         <v>3.1</v>
@@ -6682,16 +6682,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
         <v>2.88</v>
       </c>
       <c r="I44" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
         <v>1.91</v>
@@ -6742,7 +6742,7 @@
         <v>10</v>
       </c>
       <c r="AA44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB44" t="n">
         <v>23</v>
@@ -6769,7 +6769,7 @@
         <v>1250</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK44" t="n">
         <v>15</v>
@@ -6781,7 +6781,7 @@
         <v>34</v>
       </c>
       <c r="AN44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO44" t="n">
         <v>41</v>
@@ -6827,13 +6827,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="n">
         <v>2.6</v>
@@ -6842,13 +6842,13 @@
         <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O45" t="n">
         <v>1.44</v>
@@ -6893,16 +6893,16 @@
         <v>15</v>
       </c>
       <c r="AC45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD45" t="n">
         <v>34</v>
       </c>
       <c r="AE45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG45" t="n">
         <v>21</v>
@@ -6912,13 +6912,13 @@
       </c>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK45" t="n">
         <v>21</v>
       </c>
       <c r="AL45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM45" t="n">
         <v>51</v>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>3.1</v>
@@ -6982,10 +6982,10 @@
         <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>1.1</v>
@@ -7027,7 +7027,7 @@
         <v>6.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA46" t="n">
         <v>10</v>
@@ -7556,13 +7556,13 @@
         <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
         <v>8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
         <v>2.75</v>
@@ -7574,10 +7574,10 @@
         <v>1.62</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T50" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="U50" t="n">
         <v>1.5</v>
@@ -8668,22 +8668,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H58" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="I58" t="n">
         <v>3.15</v>
       </c>
       <c r="J58" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K58" t="n">
         <v>1.9</v>
       </c>
       <c r="L58" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -8694,13 +8694,13 @@
         <v>2.45</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R58" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S58" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T58" t="n">
         <v>1.19</v>
@@ -8712,31 +8712,31 @@
         <v>2.32</v>
       </c>
       <c r="W58" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="X58" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z58" t="n">
         <v>11.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB58" t="n">
         <v>28</v>
       </c>
       <c r="AC58" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD58" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE58" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF58" t="n">
         <v>5.4</v>
@@ -8751,13 +8751,13 @@
         <v>800</v>
       </c>
       <c r="AJ58" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AK58" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL58" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM58" t="n">
         <v>45</v>
@@ -8766,7 +8766,7 @@
         <v>32</v>
       </c>
       <c r="AO58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -8942,31 +8942,31 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L60" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.05</v>
       </c>
       <c r="M60" t="n">
         <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O60" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -8975,76 +8975,76 @@
         <v>1.62</v>
       </c>
       <c r="R60" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S60" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U60" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="V60" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W60" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X60" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y60" t="n">
         <v>9.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB60" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AE60" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF60" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH60" t="n">
         <v>45</v>
       </c>
       <c r="AI60" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ60" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AL60" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AM60" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AN60" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AO60" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9083,58 +9083,58 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="H61" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I61" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J61" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="K61" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.19</v>
       </c>
       <c r="P61" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R61" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S61" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U61" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V61" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W61" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X61" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Y61" t="n">
         <v>17</v>
@@ -9149,19 +9149,19 @@
         <v>90</v>
       </c>
       <c r="AC61" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="n">
         <v>40</v>
       </c>
-      <c r="AD61" t="n">
-        <v>37</v>
-      </c>
       <c r="AE61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AG61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH61" t="n">
         <v>50</v>
@@ -9173,19 +9173,19 @@
         <v>8.75</v>
       </c>
       <c r="AK61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL61" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AM61" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN61" t="n">
         <v>11.75</v>
       </c>
       <c r="AO61" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9361,22 +9361,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H63" t="n">
         <v>3.4</v>
       </c>
       <c r="I63" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J63" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="K63" t="n">
         <v>2.15</v>
       </c>
       <c r="L63" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
@@ -9406,7 +9406,7 @@
         <v>1.4</v>
       </c>
       <c r="V63" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W63" t="n">
         <v>1.85</v>
@@ -9415,16 +9415,16 @@
         <v>1.85</v>
       </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z63" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB63" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC63" t="n">
         <v>35</v>
@@ -9448,22 +9448,22 @@
         <v>700</v>
       </c>
       <c r="AJ63" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AK63" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AL63" t="n">
         <v>8.5</v>
       </c>
       <c r="AM63" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN63" t="n">
         <v>16</v>
       </c>
       <c r="AO63" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
